--- a/file_post_avvio/rivisto.xlsx
+++ b/file_post_avvio/rivisto.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="300">
   <si>
     <t>DATA ESTRAZIONE</t>
   </si>
@@ -810,6 +810,126 @@
   </si>
   <si>
     <t>690093|001435|Vu30001|56897.55</t>
+  </si>
+  <si>
+    <t>21123</t>
+  </si>
+  <si>
+    <t>Valida-SospesaUE</t>
+  </si>
+  <si>
+    <t>S-SSNSNN</t>
+  </si>
+  <si>
+    <t>NSSSS</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>001457</t>
+  </si>
+  <si>
+    <t>HABILITA SAN MARCO BERGAMO</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>ORTOPEDIA</t>
+  </si>
+  <si>
+    <t>DR.SSA SCALESE - BERGAMO</t>
+  </si>
+  <si>
+    <t>DR.SSA SCALESE ALESSANDRA</t>
+  </si>
+  <si>
+    <t>ORTOPEDIA DELLA MANO - Habilita Bergamo</t>
+  </si>
+  <si>
+    <t>OR002</t>
+  </si>
+  <si>
+    <t>368901.35</t>
+  </si>
+  <si>
+    <t>VISITA ORTOPEDICO TRAUMATOLOGICA (CONTROLLO)</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>07/09/2021 11:39:11</t>
+  </si>
+  <si>
+    <t>20/09/2021 01:06:57</t>
+  </si>
+  <si>
+    <t>Q00391,Q01462,Q01469,Q01558</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D00190,D00191,D00216,D00241,D00242,D00246</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>___________________________________________________________________________Il giorno della prestazione presentarsi presso l'ACCETTAZIONE AMBULATORIALE con: - RICHIESTA DEL MEDICO DI BASE O DELLO SPECIALISTA (per visite in regime privato/agevolato non e' necessario presentare la prescrizione medica)- TESSERA SANITARIA REGIONALE- PER I MINORI E' NECESSARIA LA PRESENZA DI ALMENO UN GENITORE O TUTORE O PERSONA MUNITA DI DELEGA INDISPENSABILE DOCUMENTAZIONE CLINICA E DIAGNOSTICA PRECEDENTE(Visite Specialistiche,Tac,Risonanze,Esami di Laboratorio ecc...)  In caso di impossibilita' a presentarsi per le attivita' prenotate, e' necessario dare comunicazione all'Ufficio Prenotazioni Ambulatoriali (035/4815515-prenotazioni habilita.it) che potra' in questo modo inserire altre prenotazioni, evitando inutili disservizi. Si informa l'utente che nel caso in cui la prestazione specialistica non venga disdetta entro il giorno prima, la struttura potra' avvalersi della facolta' di addebitare il costo della prestazione (D.L. 124/98).________________________________________________________________________________________ PREGASI PRESENTARSI 30 MINUTI PRIMA DELL'APPUNTAMENTO PER L'ACCETTAZIONE AMMINISTRATIVA________________________________________________________________________________________ Habilita San Marco BergamoPiazza Repubblica n.10 - 24121 Bergamo - Tel. 035/4815511 - Fax 035/210562</t>
+  </si>
+  <si>
+    <t>Nessuna indicazione esplicita di sospensione</t>
+  </si>
+  <si>
+    <t>ORTOPEDIA E TRAUMATOLOGIA</t>
+  </si>
+  <si>
+    <t>89.01.G</t>
+  </si>
+  <si>
+    <t>8901G</t>
+  </si>
+  <si>
+    <t>690093|001457|21123|368901.35</t>
+  </si>
+  <si>
+    <t>OR001</t>
+  </si>
+  <si>
+    <t>36897.35</t>
+  </si>
+  <si>
+    <t>VISITA ORTOPEDICO TRAUMATOLOGICA (PRIMA VISITA)</t>
+  </si>
+  <si>
+    <t>89.7B.7</t>
+  </si>
+  <si>
+    <t>897B7</t>
+  </si>
+  <si>
+    <t>690093|001457|21123|36897.35</t>
+  </si>
+  <si>
+    <t>Vu21123</t>
+  </si>
+  <si>
+    <t>07/09/2021 11:39:12</t>
+  </si>
+  <si>
+    <t>690093|001457|Vu21123|368901.35</t>
+  </si>
+  <si>
+    <t>690093|001457|Vu21123|36897.35</t>
   </si>
 </sst>
 </file>
@@ -1203,12 +1323,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO4"/>
+  <dimension ref="A1:DO8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,6 +2396,1016 @@
         <v>2</v>
       </c>
       <c r="DO4" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="BI5" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="CE5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CF5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CS5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CT5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CU5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CV5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CW5" s="6">
+        <v>21</v>
+      </c>
+      <c r="CX5" s="6">
+        <v>8</v>
+      </c>
+      <c r="CY5" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="CZ5" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="DA5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="DC5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DE5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="DJ5" s="6">
+        <v>15</v>
+      </c>
+      <c r="DK5" s="6">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="6">
+        <v>6</v>
+      </c>
+      <c r="DM5" s="6">
+        <v>6</v>
+      </c>
+      <c r="DN5" s="6">
+        <v>6</v>
+      </c>
+      <c r="DO5" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="BI6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM6" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO6" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP6" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="BQ6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS6" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="CE6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CF6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CS6" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CT6" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CU6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CV6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CW6" s="6">
+        <v>21</v>
+      </c>
+      <c r="CX6" s="6">
+        <v>8</v>
+      </c>
+      <c r="CY6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CZ6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="DA6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="DC6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="6">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="DJ6" s="6">
+        <v>15</v>
+      </c>
+      <c r="DK6" s="6">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="6">
+        <v>6</v>
+      </c>
+      <c r="DM6" s="6">
+        <v>6</v>
+      </c>
+      <c r="DN6" s="6">
+        <v>6</v>
+      </c>
+      <c r="DO6" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI7" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK7" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="BQ7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="CE7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CF7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CS7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CT7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CU7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CV7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CW7" s="6">
+        <v>21</v>
+      </c>
+      <c r="CX7" s="6">
+        <v>21</v>
+      </c>
+      <c r="CY7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="CZ7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="DA7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB7" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="DC7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DE7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="6">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="DJ7" s="6">
+        <v>15</v>
+      </c>
+      <c r="DK7" s="6">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="6">
+        <v>6</v>
+      </c>
+      <c r="DM7" s="6">
+        <v>6</v>
+      </c>
+      <c r="DN7" s="6">
+        <v>6</v>
+      </c>
+      <c r="DO7" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF8" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI8" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL8" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO8" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP8" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="BQ8" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS8" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY8" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="CE8" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CF8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="CS8" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CT8" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="CU8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CV8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="CW8" s="6">
+        <v>21</v>
+      </c>
+      <c r="CX8" s="6">
+        <v>21</v>
+      </c>
+      <c r="CY8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CZ8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="DA8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB8" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="DC8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DE8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DF8" s="6">
+        <v>1</v>
+      </c>
+      <c r="DG8" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="DJ8" s="6">
+        <v>15</v>
+      </c>
+      <c r="DK8" s="6">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="6">
+        <v>6</v>
+      </c>
+      <c r="DM8" s="6">
+        <v>6</v>
+      </c>
+      <c r="DN8" s="6">
+        <v>6</v>
+      </c>
+      <c r="DO8" s="6" t="s">
         <v>223</v>
       </c>
     </row>

--- a/file_post_avvio/rivisto.xlsx
+++ b/file_post_avvio/rivisto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="7560"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Rivisto" sheetId="1" r:id="rId1"/>
@@ -1325,10 +1325,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="BL22" sqref="BL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1338,15 @@
     <col min="3" max="3" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="6" customWidth="1"/>
     <col min="5" max="13" width="12" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="20" width="9.140625" style="6"/>
+    <col min="21" max="21" width="11.140625" style="6" customWidth="1"/>
+    <col min="22" max="24" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="6"/>
+    <col min="26" max="26" width="10.5703125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="34.140625" style="6" customWidth="1"/>
+    <col min="28" max="63" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="37" style="6" customWidth="1"/>
+    <col min="65" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:119" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
